--- a/ILRG_ORAM_D_encontros/ILRG_ORAM_D_encontros-media/ILRG_ORAM_D_encontros.xlsx
+++ b/ILRG_ORAM_D_encontros/ILRG_ORAM_D_encontros-media/ILRG_ORAM_D_encontros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\Grants\Dams project\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_D_encontros\ILRG_ORAM_D_encontros-media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_D_encontros\ILRG_ORAM_D_encontros-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D4328B-DE37-40A6-92D7-F10D403BD3E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B89238A-C1DF-4B3F-9FD1-A821B7E6105A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="1214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="1216">
   <si>
     <t>type</t>
   </si>
@@ -3730,14 +3730,27 @@
   <si>
     <t>Outro tipo do encontro</t>
   </si>
+  <si>
+    <t>PV040601070</t>
+  </si>
+  <si>
+    <t>Jagarra</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4022,415 +4035,421 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="237">
+  <cellStyleXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="234" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="234" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="236" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="236" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="236" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="236" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="236"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="236"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="237" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="237">
+  <cellStyles count="238">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4668,6 +4687,7 @@
     <cellStyle name="Normal 3 2" xfId="234" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
     <cellStyle name="Normal 3 2 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
     <cellStyle name="Normal 3 2 2 2" xfId="236" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="Normal 3 2 2 2 3 2" xfId="237" xr:uid="{7D434E13-FE7D-451E-BF4A-FE76E518924A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -5007,7 +5027,7 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
@@ -5674,7 +5694,7 @@
   <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
@@ -6400,9 +6420,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G4198"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A519" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C543" sqref="C543"/>
+      <selection pane="bottomLeft" activeCell="C546" sqref="C546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14324,9 +14344,20 @@
       <c r="G539" s="46"/>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A540" s="42"/>
-      <c r="B540" s="47"/>
-      <c r="C540" s="46"/>
+      <c r="A540" s="85" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B540" s="86" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C540" s="87" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D540" s="86"/>
+      <c r="E540" s="86"/>
+      <c r="F540" s="86" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="42"/>
@@ -31695,8 +31726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31730,7 +31761,7 @@
         <v>1099</v>
       </c>
       <c r="C2" s="67">
-        <v>201902271</v>
+        <v>201904021</v>
       </c>
       <c r="D2" s="84" t="s">
         <v>1100</v>

--- a/ILRG_ORAM_D_encontros/ILRG_ORAM_D_encontros-media/ILRG_ORAM_D_encontros.xlsx
+++ b/ILRG_ORAM_D_encontros/ILRG_ORAM_D_encontros-media/ILRG_ORAM_D_encontros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_D_encontros\ILRG_ORAM_D_encontros-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B89238A-C1DF-4B3F-9FD1-A821B7E6105A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306C9172-0D24-441D-B8A8-CF7FE864DF83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="settings" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$C$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$C$31</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="1238">
   <si>
     <t>type</t>
   </si>
@@ -3736,14 +3736,87 @@
   <si>
     <t>Jagarra</t>
   </si>
+  <si>
+    <t>Bonefacio_Basílio</t>
+  </si>
+  <si>
+    <t>Bonefacio Basílio</t>
+  </si>
+  <si>
+    <t>Calisto_Agostinho_Inácio</t>
+  </si>
+  <si>
+    <t>Calisto Agostinho Inácio</t>
+  </si>
+  <si>
+    <t>Celestina_Armando</t>
+  </si>
+  <si>
+    <t>Celestina Armando</t>
+  </si>
+  <si>
+    <t>Celestina_Joaquim_Muanavava</t>
+  </si>
+  <si>
+    <t>Celestina Joaquim Muanavava</t>
+  </si>
+  <si>
+    <t>Constantino_Jerónimo</t>
+  </si>
+  <si>
+    <t>Constantino Jerónimo</t>
+  </si>
+  <si>
+    <t>Costa_António</t>
+  </si>
+  <si>
+    <t>Costa António</t>
+  </si>
+  <si>
+    <t>Damacio_Feliciano</t>
+  </si>
+  <si>
+    <t>Damacio Feliciano</t>
+  </si>
+  <si>
+    <t>Diosa_Alberto</t>
+  </si>
+  <si>
+    <t>Diosa Alberto</t>
+  </si>
+  <si>
+    <t>Olinda_Rui_Muquelesse</t>
+  </si>
+  <si>
+    <t>Olinda Rui Muquelesse</t>
+  </si>
+  <si>
+    <t>Xerife_Gabriel</t>
+  </si>
+  <si>
+    <t>Xerife Gabriel</t>
+  </si>
+  <si>
+    <t>Zito_Afonso</t>
+  </si>
+  <si>
+    <t>Zito Afonso</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4037,417 +4110,422 @@
   </borders>
   <cellStyleXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="234" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="234" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="236" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="236" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="236" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="236" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="236"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="236"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="237" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="237" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="238">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5149,7 +5227,7 @@
       <c r="B7" s="69" t="s">
         <v>1104</v>
       </c>
-      <c r="N7" s="81" t="s">
+      <c r="N7" s="80" t="s">
         <v>1210</v>
       </c>
     </row>
@@ -5160,7 +5238,7 @@
       <c r="B8" s="69" t="s">
         <v>1105</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="80" t="s">
         <v>1209</v>
       </c>
     </row>
@@ -5188,7 +5266,7 @@
       <c r="B11" s="69" t="s">
         <v>1108</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="80" t="s">
         <v>1208</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -5310,7 +5388,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="81" t="s">
         <v>1211</v>
       </c>
       <c r="B19" s="69" t="s">
@@ -5330,7 +5408,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="81" t="s">
         <v>1212</v>
       </c>
       <c r="B20" s="69" t="s">
@@ -5367,7 +5445,7 @@
       <c r="A22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="74" t="s">
         <v>1154</v>
       </c>
       <c r="C22" s="15" t="s">
@@ -5381,7 +5459,7 @@
       <c r="A23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="74" t="s">
         <v>1155</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -5402,7 +5480,7 @@
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="74" t="s">
         <v>1156</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -5414,16 +5492,16 @@
       </c>
     </row>
     <row r="26" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="75" t="s">
         <v>1173</v>
       </c>
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="74" t="s">
         <v>1157</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="76" t="s">
+      <c r="G26" s="75" t="s">
         <v>1172</v>
       </c>
       <c r="L26" s="26" t="s">
@@ -5434,13 +5512,13 @@
       <c r="A27" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="74" t="s">
         <v>1158</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="76" t="s">
+      <c r="G27" s="75" t="s">
         <v>1171</v>
       </c>
       <c r="H27" s="30" t="s">
@@ -5457,7 +5535,7 @@
       <c r="A28" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="74" t="s">
         <v>1159</v>
       </c>
       <c r="C28" s="24" t="s">
@@ -5474,13 +5552,13 @@
       <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="74" t="s">
         <v>1160</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="76" t="s">
+      <c r="G29" s="75" t="s">
         <v>1163</v>
       </c>
       <c r="H29" s="30" t="s">
@@ -5497,7 +5575,7 @@
       <c r="A30" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="74" t="s">
         <v>1161</v>
       </c>
       <c r="C30" s="26" t="s">
@@ -5514,13 +5592,13 @@
       <c r="A31" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="74" t="s">
         <v>1162</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="G31" s="76" t="s">
+      <c r="G31" s="75" t="s">
         <v>1164</v>
       </c>
       <c r="H31" s="30" t="s">
@@ -5551,7 +5629,7 @@
       <c r="A33" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="74" t="s">
         <v>1165</v>
       </c>
       <c r="C33" s="30" t="s">
@@ -5568,7 +5646,7 @@
       <c r="A34" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="74" t="s">
         <v>1166</v>
       </c>
       <c r="C34" s="30" t="s">
@@ -5585,7 +5663,7 @@
       <c r="A35" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="74" t="s">
         <v>1167</v>
       </c>
       <c r="C35" s="30" t="s">
@@ -5602,7 +5680,7 @@
       <c r="A36" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="74" t="s">
         <v>1168</v>
       </c>
       <c r="C36" s="36" t="s">
@@ -5625,7 +5703,7 @@
       <c r="A38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="74" t="s">
         <v>1169</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -5639,7 +5717,7 @@
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="74" t="s">
         <v>1170</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -5691,13 +5769,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5726,688 +5804,825 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="88" t="s">
         <v>1109</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="89" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="88" t="s">
         <v>1111</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="89" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="88" t="s">
         <v>1112</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="89" t="s">
         <v>1113</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="88" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="88" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="88" t="s">
         <v>1114</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C10" s="89" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B11" s="88" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="88" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="88" t="s">
         <v>1116</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C13" s="89" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B14" s="88" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="88" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="88" t="s">
         <v>1118</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C16" s="89" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="71" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B17" s="88" t="s">
         <v>1120</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C17" s="89" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B18" s="88" t="s">
         <v>1122</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C18" s="89" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B19" s="88" t="s">
         <v>1124</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C19" s="89" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B20" s="88" t="s">
         <v>1126</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C20" s="89" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B21" s="88" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C21" s="90" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="88" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C22" s="90" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="88" t="s">
         <v>1128</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C23" s="89" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B24" s="88" t="s">
         <v>1130</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C24" s="89" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B25" s="88" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C25" s="90" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="88" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C26" s="90" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="88" t="s">
         <v>1132</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C27" s="87" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="35"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="71"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="35"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B30" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B31" s="72" t="s">
         <v>1144</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="56" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B33" s="77" t="s">
         <v>1180</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C33" s="33" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B34" s="77" t="s">
         <v>1181</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C34" s="33" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B35" s="77" t="s">
         <v>1182</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C35" s="33" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B36" s="77" t="s">
         <v>1183</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C36" s="33" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B37" s="77" t="s">
         <v>1184</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C37" s="33" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B38" s="77" t="s">
         <v>1185</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C38" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B39" s="77" t="s">
         <v>1132</v>
       </c>
-      <c r="C26" s="83" t="s">
+      <c r="C39" s="82" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="56" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="79" t="s">
+      <c r="B41" s="78" t="s">
         <v>1186</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C41" s="79" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="79" t="s">
+      <c r="B42" s="78" t="s">
         <v>1187</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C42" s="79" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="79" t="s">
+      <c r="B43" s="78" t="s">
         <v>1188</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C43" s="79" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="79" t="s">
+      <c r="B44" s="78" t="s">
         <v>1189</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C44" s="79" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="79" t="s">
+      <c r="B45" s="78" t="s">
         <v>1190</v>
       </c>
-      <c r="C32" s="80" t="s">
+      <c r="C45" s="79" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B46" s="78" t="s">
         <v>1191</v>
       </c>
-      <c r="C33" s="80" t="s">
+      <c r="C46" s="79" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="79" t="s">
+      <c r="B47" s="78" t="s">
         <v>1192</v>
       </c>
-      <c r="C34" s="80" t="s">
+      <c r="C47" s="79" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="79" t="s">
+      <c r="B48" s="78" t="s">
         <v>1193</v>
       </c>
-      <c r="C35" s="80" t="s">
+      <c r="C48" s="79" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B49" s="78" t="s">
         <v>1194</v>
       </c>
-      <c r="C36" s="80" t="s">
+      <c r="C49" s="79" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B50" s="78" t="s">
         <v>1195</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C50" s="79" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="79" t="s">
+      <c r="B51" s="78" t="s">
         <v>1196</v>
       </c>
-      <c r="C38" s="80" t="s">
+      <c r="C51" s="79" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B52" s="78" t="s">
         <v>1197</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C52" s="79" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="79" t="s">
+      <c r="B53" s="78" t="s">
         <v>1132</v>
       </c>
-      <c r="C40" s="80" t="s">
+      <c r="C53" s="79" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="56" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="77" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="76" t="s">
         <v>1174</v>
       </c>
-      <c r="B42" s="78" t="s">
+      <c r="B55" s="77" t="s">
         <v>1198</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C55" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="77" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="76" t="s">
         <v>1174</v>
       </c>
-      <c r="B43" s="78" t="s">
+      <c r="B56" s="77" t="s">
         <v>1199</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C56" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="77" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="76" t="s">
         <v>1174</v>
       </c>
-      <c r="B44" s="78" t="s">
+      <c r="B57" s="77" t="s">
         <v>1200</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C57" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="77" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="76" t="s">
         <v>1174</v>
       </c>
-      <c r="B45" s="78" t="s">
+      <c r="B58" s="77" t="s">
         <v>1201</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C58" s="23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="77" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="76" t="s">
         <v>1174</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="B59" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C59" s="23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="77" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="76" t="s">
         <v>1174</v>
       </c>
-      <c r="B47" s="57" t="s">
+      <c r="B60" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C60" s="23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="77" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="76" t="s">
         <v>1174</v>
       </c>
-      <c r="B48" s="78" t="s">
+      <c r="B61" s="77" t="s">
         <v>1202</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C61" s="23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="77" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="76" t="s">
         <v>1174</v>
       </c>
-      <c r="B49" s="57" t="s">
+      <c r="B62" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C62" s="23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="77" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="76" t="s">
         <v>1174</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B63" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C63" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="77" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="76" t="s">
         <v>1174</v>
       </c>
-      <c r="B51" s="78" t="s">
+      <c r="B64" s="77" t="s">
         <v>1132</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C64" s="33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="78" t="s">
+      <c r="B66" s="77" t="s">
         <v>1203</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C66" s="28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="78" t="s">
+      <c r="B67" s="77" t="s">
         <v>1204</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C67" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="78" t="s">
+      <c r="B68" s="77" t="s">
         <v>1205</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C68" s="28" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="78" t="s">
+      <c r="B69" s="77" t="s">
         <v>1206</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C69" s="28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="78" t="s">
+      <c r="B70" s="77" t="s">
         <v>1207</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C70" s="28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B59" s="58" t="s">
+      <c r="B72" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C72" s="32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B60" s="58" t="s">
+      <c r="B73" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C73" s="32" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="58" t="s">
+      <c r="B74" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C74" s="32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="58" t="s">
+      <c r="B75" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="C62" s="32" t="s">
+      <c r="C75" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="58" t="s">
+      <c r="B76" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="C76" s="32" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="31" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B64" s="58" t="s">
+      <c r="B77" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="C77" s="32" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="31" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B65" s="58" t="s">
+      <c r="B78" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C78" s="32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="58" t="s">
+      <c r="B79" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C79" s="32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="31" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B67" s="58" t="s">
+      <c r="B80" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="C80" s="32" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B68" s="58" t="s">
+      <c r="B81" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C81" s="34" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C18" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:C31" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:C14">
     <sortCondition ref="C12:C14"/>
   </sortState>
@@ -6420,7 +6635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G4198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A519" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C546" sqref="C546"/>
     </sheetView>
@@ -8872,7 +9087,7 @@
       <c r="C148" s="46"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="74" t="s">
+      <c r="A149" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B149" s="47" t="s">
@@ -8886,7 +9101,7 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="74" t="s">
+      <c r="A150" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B150" s="47" t="s">
@@ -8900,7 +9115,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="74" t="s">
+      <c r="A151" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B151" s="47" t="s">
@@ -8914,7 +9129,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="74" t="s">
+      <c r="A152" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B152" s="47" t="s">
@@ -8928,7 +9143,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="74" t="s">
+      <c r="A153" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B153" s="49" t="s">
@@ -8942,7 +9157,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="74" t="s">
+      <c r="A154" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B154" s="47" t="s">
@@ -8956,7 +9171,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="74" t="s">
+      <c r="A155" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B155" s="47" t="s">
@@ -8970,7 +9185,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="74" t="s">
+      <c r="A156" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B156" s="47" t="s">
@@ -8984,7 +9199,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="74" t="s">
+      <c r="A157" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B157" s="47" t="s">
@@ -8998,7 +9213,7 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="74" t="s">
+      <c r="A158" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B158" s="47" t="s">
@@ -9012,7 +9227,7 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="74" t="s">
+      <c r="A159" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B159" s="47" t="s">
@@ -9026,7 +9241,7 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="74" t="s">
+      <c r="A160" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B160" s="47" t="s">
@@ -9040,7 +9255,7 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="74" t="s">
+      <c r="A161" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B161" s="47" t="s">
@@ -9054,7 +9269,7 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="74" t="s">
+      <c r="A162" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B162" s="47" t="s">
@@ -9068,7 +9283,7 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="74" t="s">
+      <c r="A163" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B163" s="47" t="s">
@@ -9082,7 +9297,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="74" t="s">
+      <c r="A164" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B164" s="47" t="s">
@@ -9096,7 +9311,7 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="74" t="s">
+      <c r="A165" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B165" s="47" t="s">
@@ -9110,7 +9325,7 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="74" t="s">
+      <c r="A166" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B166" s="47" t="s">
@@ -9124,7 +9339,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="74" t="s">
+      <c r="A167" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B167" s="47" t="s">
@@ -9138,7 +9353,7 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="74" t="s">
+      <c r="A168" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B168" s="47" t="s">
@@ -9152,7 +9367,7 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="74" t="s">
+      <c r="A169" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B169" s="47" t="s">
@@ -9166,7 +9381,7 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="74" t="s">
+      <c r="A170" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B170" s="47" t="s">
@@ -9180,7 +9395,7 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="74" t="s">
+      <c r="A171" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B171" s="47" t="s">
@@ -9194,7 +9409,7 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="74" t="s">
+      <c r="A172" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B172" s="47" t="s">
@@ -9208,7 +9423,7 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="74" t="s">
+      <c r="A173" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B173" s="47" t="s">
@@ -9222,7 +9437,7 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="74" t="s">
+      <c r="A174" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B174" s="47" t="s">
@@ -9236,7 +9451,7 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="74" t="s">
+      <c r="A175" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B175" s="47" t="s">
@@ -9250,7 +9465,7 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="74" t="s">
+      <c r="A176" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B176" s="47" t="s">
@@ -9264,7 +9479,7 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="74" t="s">
+      <c r="A177" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B177" s="47" t="s">
@@ -9278,7 +9493,7 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="74" t="s">
+      <c r="A178" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B178" s="47" t="s">
@@ -9292,7 +9507,7 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="74" t="s">
+      <c r="A179" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B179" s="47" t="s">
@@ -9306,7 +9521,7 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="74" t="s">
+      <c r="A180" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B180" s="49" t="s">
@@ -9320,7 +9535,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="74" t="s">
+      <c r="A181" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B181" s="47" t="s">
@@ -9334,7 +9549,7 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="74" t="s">
+      <c r="A182" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B182" s="47" t="s">
@@ -9348,7 +9563,7 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="74" t="s">
+      <c r="A183" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B183" s="47" t="s">
@@ -9362,7 +9577,7 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="74" t="s">
+      <c r="A184" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B184" s="47" t="s">
@@ -9376,7 +9591,7 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="74" t="s">
+      <c r="A185" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B185" s="47" t="s">
@@ -9390,7 +9605,7 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="74" t="s">
+      <c r="A186" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B186" s="47" t="s">
@@ -9404,7 +9619,7 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="74" t="s">
+      <c r="A187" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B187" s="47" t="s">
@@ -9418,7 +9633,7 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="74" t="s">
+      <c r="A188" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B188" s="47" t="s">
@@ -9432,7 +9647,7 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="74" t="s">
+      <c r="A189" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B189" s="47" t="s">
@@ -9446,7 +9661,7 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="74" t="s">
+      <c r="A190" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B190" s="47" t="s">
@@ -9460,7 +9675,7 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="74" t="s">
+      <c r="A191" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B191" s="47" t="s">
@@ -9474,7 +9689,7 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="74" t="s">
+      <c r="A192" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B192" s="47" t="s">
@@ -9488,7 +9703,7 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="74" t="s">
+      <c r="A193" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B193" s="47" t="s">
@@ -9502,7 +9717,7 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="74" t="s">
+      <c r="A194" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B194" s="47" t="s">
@@ -9516,7 +9731,7 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="74" t="s">
+      <c r="A195" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B195" s="47" t="s">
@@ -9530,7 +9745,7 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="74" t="s">
+      <c r="A196" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B196" s="47" t="s">
@@ -9544,7 +9759,7 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="74" t="s">
+      <c r="A197" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B197" s="47" t="s">
@@ -9558,7 +9773,7 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="74" t="s">
+      <c r="A198" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B198" s="47" t="s">
@@ -9572,7 +9787,7 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="74" t="s">
+      <c r="A199" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B199" s="47" t="s">
@@ -9586,7 +9801,7 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="74" t="s">
+      <c r="A200" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B200" s="47" t="s">
@@ -9600,7 +9815,7 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="74" t="s">
+      <c r="A201" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B201" s="47" t="s">
@@ -9614,7 +9829,7 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="74" t="s">
+      <c r="A202" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B202" s="47" t="s">
@@ -9628,7 +9843,7 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="74" t="s">
+      <c r="A203" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B203" s="47" t="s">
@@ -9642,7 +9857,7 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="74" t="s">
+      <c r="A204" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B204" s="47" t="s">
@@ -9656,7 +9871,7 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="74" t="s">
+      <c r="A205" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B205" s="47" t="s">
@@ -9670,7 +9885,7 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="74" t="s">
+      <c r="A206" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B206" s="47" t="s">
@@ -9684,7 +9899,7 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="74" t="s">
+      <c r="A207" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B207" s="47" t="s">
@@ -9698,7 +9913,7 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="74" t="s">
+      <c r="A208" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B208" s="47" t="s">
@@ -9712,7 +9927,7 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="74" t="s">
+      <c r="A209" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B209" s="47" t="s">
@@ -9726,7 +9941,7 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="74" t="s">
+      <c r="A210" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B210" s="47" t="s">
@@ -9740,7 +9955,7 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="74" t="s">
+      <c r="A211" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B211" s="47" t="s">
@@ -9754,7 +9969,7 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="74" t="s">
+      <c r="A212" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B212" s="47" t="s">
@@ -9768,7 +9983,7 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="74" t="s">
+      <c r="A213" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B213" s="47" t="s">
@@ -9782,7 +9997,7 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="74" t="s">
+      <c r="A214" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B214" s="47" t="s">
@@ -9796,7 +10011,7 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="74" t="s">
+      <c r="A215" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B215" s="47" t="s">
@@ -9810,7 +10025,7 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="74" t="s">
+      <c r="A216" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B216" s="47" t="s">
@@ -9824,7 +10039,7 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="74" t="s">
+      <c r="A217" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B217" s="47" t="s">
@@ -9838,7 +10053,7 @@
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="74" t="s">
+      <c r="A218" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B218" s="47" t="s">
@@ -9852,7 +10067,7 @@
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="74" t="s">
+      <c r="A219" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B219" s="47" t="s">
@@ -9866,7 +10081,7 @@
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="74" t="s">
+      <c r="A220" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B220" s="47" t="s">
@@ -9880,7 +10095,7 @@
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="74" t="s">
+      <c r="A221" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B221" s="47" t="s">
@@ -9894,7 +10109,7 @@
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="74" t="s">
+      <c r="A222" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B222" s="47" t="s">
@@ -9908,7 +10123,7 @@
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="74" t="s">
+      <c r="A223" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B223" s="47" t="s">
@@ -9922,7 +10137,7 @@
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="74" t="s">
+      <c r="A224" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B224" s="47" t="s">
@@ -9936,7 +10151,7 @@
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="74" t="s">
+      <c r="A225" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B225" s="47" t="s">
@@ -9950,7 +10165,7 @@
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="74" t="s">
+      <c r="A226" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B226" s="47" t="s">
@@ -9964,7 +10179,7 @@
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="74" t="s">
+      <c r="A227" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B227" s="49" t="s">
@@ -9978,7 +10193,7 @@
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="74" t="s">
+      <c r="A228" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B228" s="49" t="s">
@@ -9992,7 +10207,7 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="74" t="s">
+      <c r="A229" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B229" s="47" t="s">
@@ -10006,7 +10221,7 @@
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="74" t="s">
+      <c r="A230" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B230" s="47" t="s">
@@ -10020,7 +10235,7 @@
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="74" t="s">
+      <c r="A231" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B231" s="47" t="s">
@@ -10034,7 +10249,7 @@
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="74" t="s">
+      <c r="A232" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B232" s="47" t="s">
@@ -10048,7 +10263,7 @@
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="74" t="s">
+      <c r="A233" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B233" s="47" t="s">
@@ -10062,7 +10277,7 @@
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="74" t="s">
+      <c r="A234" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B234" s="47" t="s">
@@ -10076,7 +10291,7 @@
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="74" t="s">
+      <c r="A235" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B235" s="47" t="s">
@@ -10090,7 +10305,7 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="74" t="s">
+      <c r="A236" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B236" s="47" t="s">
@@ -10104,7 +10319,7 @@
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="74" t="s">
+      <c r="A237" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B237" s="47" t="s">
@@ -10118,7 +10333,7 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="74" t="s">
+      <c r="A238" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B238" s="47" t="s">
@@ -10132,7 +10347,7 @@
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="74" t="s">
+      <c r="A239" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B239" s="47" t="s">
@@ -10146,7 +10361,7 @@
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="74" t="s">
+      <c r="A240" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B240" s="47" t="s">
@@ -10160,7 +10375,7 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="74" t="s">
+      <c r="A241" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B241" s="47" t="s">
@@ -10174,7 +10389,7 @@
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="74" t="s">
+      <c r="A242" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B242" s="47" t="s">
@@ -10188,7 +10403,7 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="74" t="s">
+      <c r="A243" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B243" s="47" t="s">
@@ -10202,7 +10417,7 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="74" t="s">
+      <c r="A244" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B244" s="47" t="s">
@@ -10216,7 +10431,7 @@
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="74" t="s">
+      <c r="A245" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B245" s="47" t="s">
@@ -10230,7 +10445,7 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="74" t="s">
+      <c r="A246" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B246" s="47" t="s">
@@ -10244,7 +10459,7 @@
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="74" t="s">
+      <c r="A247" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B247" s="47" t="s">
@@ -10258,7 +10473,7 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="74" t="s">
+      <c r="A248" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B248" s="47" t="s">
@@ -10272,7 +10487,7 @@
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="74" t="s">
+      <c r="A249" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B249" s="47" t="s">
@@ -10286,7 +10501,7 @@
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="74" t="s">
+      <c r="A250" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B250" s="47" t="s">
@@ -10300,7 +10515,7 @@
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="74" t="s">
+      <c r="A251" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B251" s="47" t="s">
@@ -10314,7 +10529,7 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="74" t="s">
+      <c r="A252" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B252" s="47" t="s">
@@ -10328,7 +10543,7 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="74" t="s">
+      <c r="A253" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B253" s="47" t="s">
@@ -10342,7 +10557,7 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="74" t="s">
+      <c r="A254" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B254" s="47" t="s">
@@ -10356,7 +10571,7 @@
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="74" t="s">
+      <c r="A255" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B255" s="47" t="s">
@@ -10370,7 +10585,7 @@
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="74" t="s">
+      <c r="A256" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B256" s="47" t="s">
@@ -10384,7 +10599,7 @@
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="74" t="s">
+      <c r="A257" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B257" s="47" t="s">
@@ -10398,7 +10613,7 @@
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="74" t="s">
+      <c r="A258" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B258" s="47" t="s">
@@ -10412,7 +10627,7 @@
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="74" t="s">
+      <c r="A259" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B259" s="47" t="s">
@@ -10426,7 +10641,7 @@
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="74" t="s">
+      <c r="A260" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B260" s="47" t="s">
@@ -10440,7 +10655,7 @@
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="74" t="s">
+      <c r="A261" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B261" s="47" t="s">
@@ -10454,7 +10669,7 @@
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="74" t="s">
+      <c r="A262" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B262" s="47" t="s">
@@ -10468,7 +10683,7 @@
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="74" t="s">
+      <c r="A263" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B263" s="47" t="s">
@@ -10482,7 +10697,7 @@
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="74" t="s">
+      <c r="A264" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B264" s="47" t="s">
@@ -10496,7 +10711,7 @@
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="74" t="s">
+      <c r="A265" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B265" s="47" t="s">
@@ -10510,7 +10725,7 @@
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="74" t="s">
+      <c r="A266" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B266" s="47" t="s">
@@ -10524,7 +10739,7 @@
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="74" t="s">
+      <c r="A267" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B267" s="47" t="s">
@@ -10538,7 +10753,7 @@
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="74" t="s">
+      <c r="A268" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B268" s="47" t="s">
@@ -10552,7 +10767,7 @@
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="74" t="s">
+      <c r="A269" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B269" s="47" t="s">
@@ -10566,7 +10781,7 @@
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="74" t="s">
+      <c r="A270" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B270" s="47" t="s">
@@ -10580,7 +10795,7 @@
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="74" t="s">
+      <c r="A271" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B271" s="47" t="s">
@@ -10594,7 +10809,7 @@
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="74" t="s">
+      <c r="A272" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B272" s="47" t="s">
@@ -10608,7 +10823,7 @@
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="74" t="s">
+      <c r="A273" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B273" s="47" t="s">
@@ -10622,7 +10837,7 @@
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="74" t="s">
+      <c r="A274" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B274" s="47" t="s">
@@ -10636,7 +10851,7 @@
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="74" t="s">
+      <c r="A275" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B275" s="47" t="s">
@@ -10650,7 +10865,7 @@
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="74" t="s">
+      <c r="A276" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B276" s="47" t="s">
@@ -10664,7 +10879,7 @@
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="74" t="s">
+      <c r="A277" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B277" s="47" t="s">
@@ -10678,7 +10893,7 @@
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="74" t="s">
+      <c r="A278" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B278" s="47" t="s">
@@ -10692,7 +10907,7 @@
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="74" t="s">
+      <c r="A279" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B279" s="47" t="s">
@@ -10706,7 +10921,7 @@
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="74" t="s">
+      <c r="A280" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B280" s="47" t="s">
@@ -10720,7 +10935,7 @@
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="74" t="s">
+      <c r="A281" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B281" s="47" t="s">
@@ -10734,7 +10949,7 @@
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="74" t="s">
+      <c r="A282" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B282" s="47" t="s">
@@ -10748,7 +10963,7 @@
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="74" t="s">
+      <c r="A283" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B283" s="47" t="s">
@@ -10762,7 +10977,7 @@
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="74" t="s">
+      <c r="A284" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B284" s="47" t="s">
@@ -10776,7 +10991,7 @@
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="74" t="s">
+      <c r="A285" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B285" s="47" t="s">
@@ -10790,7 +11005,7 @@
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="74" t="s">
+      <c r="A286" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B286" s="47" t="s">
@@ -10804,7 +11019,7 @@
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="74" t="s">
+      <c r="A287" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B287" s="47" t="s">
@@ -10818,7 +11033,7 @@
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="74" t="s">
+      <c r="A288" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B288" s="47" t="s">
@@ -10832,7 +11047,7 @@
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="74" t="s">
+      <c r="A289" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B289" s="47" t="s">
@@ -10846,7 +11061,7 @@
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="74" t="s">
+      <c r="A290" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B290" s="47" t="s">
@@ -10860,7 +11075,7 @@
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="74" t="s">
+      <c r="A291" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B291" s="47" t="s">
@@ -10874,7 +11089,7 @@
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="74" t="s">
+      <c r="A292" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B292" s="47" t="s">
@@ -10888,7 +11103,7 @@
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="74" t="s">
+      <c r="A293" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B293" s="47" t="s">
@@ -10902,7 +11117,7 @@
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="74" t="s">
+      <c r="A294" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B294" s="47" t="s">
@@ -10916,7 +11131,7 @@
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="74" t="s">
+      <c r="A295" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B295" s="47" t="s">
@@ -10930,7 +11145,7 @@
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="74" t="s">
+      <c r="A296" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B296" s="47" t="s">
@@ -10944,7 +11159,7 @@
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="74" t="s">
+      <c r="A297" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B297" s="47" t="s">
@@ -10958,7 +11173,7 @@
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="74" t="s">
+      <c r="A298" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B298" s="47" t="s">
@@ -10972,7 +11187,7 @@
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="74" t="s">
+      <c r="A299" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B299" s="47" t="s">
@@ -10986,7 +11201,7 @@
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="74" t="s">
+      <c r="A300" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B300" s="47" t="s">
@@ -11000,7 +11215,7 @@
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="74" t="s">
+      <c r="A301" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B301" s="47" t="s">
@@ -11014,7 +11229,7 @@
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="74" t="s">
+      <c r="A302" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B302" s="47" t="s">
@@ -11028,7 +11243,7 @@
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="74" t="s">
+      <c r="A303" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B303" s="47" t="s">
@@ -11042,7 +11257,7 @@
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="74" t="s">
+      <c r="A304" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B304" s="47" t="s">
@@ -11056,7 +11271,7 @@
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" s="74" t="s">
+      <c r="A305" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B305" s="47" t="s">
@@ -11070,7 +11285,7 @@
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="74" t="s">
+      <c r="A306" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B306" s="47" t="s">
@@ -11084,7 +11299,7 @@
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="74" t="s">
+      <c r="A307" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B307" s="47" t="s">
@@ -11098,7 +11313,7 @@
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="74" t="s">
+      <c r="A308" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B308" s="47" t="s">
@@ -11112,7 +11327,7 @@
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="74" t="s">
+      <c r="A309" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B309" s="47" t="s">
@@ -11126,7 +11341,7 @@
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="74" t="s">
+      <c r="A310" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B310" s="47" t="s">
@@ -11140,7 +11355,7 @@
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="74" t="s">
+      <c r="A311" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B311" s="47" t="s">
@@ -11154,7 +11369,7 @@
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="74" t="s">
+      <c r="A312" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B312" s="47" t="s">
@@ -11168,7 +11383,7 @@
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="74" t="s">
+      <c r="A313" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B313" s="47" t="s">
@@ -11182,7 +11397,7 @@
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="74" t="s">
+      <c r="A314" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B314" s="47" t="s">
@@ -11196,7 +11411,7 @@
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="74" t="s">
+      <c r="A315" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B315" s="47" t="s">
@@ -11210,7 +11425,7 @@
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="74" t="s">
+      <c r="A316" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B316" s="47" t="s">
@@ -11224,7 +11439,7 @@
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="74" t="s">
+      <c r="A317" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B317" s="47" t="s">
@@ -11238,7 +11453,7 @@
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="74" t="s">
+      <c r="A318" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B318" s="47" t="s">
@@ -11252,7 +11467,7 @@
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="74" t="s">
+      <c r="A319" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B319" s="47" t="s">
@@ -11266,7 +11481,7 @@
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="74" t="s">
+      <c r="A320" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B320" s="47" t="s">
@@ -11280,7 +11495,7 @@
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="74" t="s">
+      <c r="A321" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B321" s="47" t="s">
@@ -11294,7 +11509,7 @@
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="74" t="s">
+      <c r="A322" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B322" s="47" t="s">
@@ -11308,7 +11523,7 @@
       </c>
     </row>
     <row r="323" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="74" t="s">
+      <c r="A323" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B323" s="50" t="s">
@@ -11324,7 +11539,7 @@
       <c r="F323" s="52"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="74" t="s">
+      <c r="A324" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B324" s="47" t="s">
@@ -11338,7 +11553,7 @@
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="74" t="s">
+      <c r="A325" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B325" s="47" t="s">
@@ -11352,7 +11567,7 @@
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="74" t="s">
+      <c r="A326" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B326" s="47" t="s">
@@ -11366,7 +11581,7 @@
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="74" t="s">
+      <c r="A327" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B327" s="47" t="s">
@@ -11380,7 +11595,7 @@
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="74" t="s">
+      <c r="A328" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B328" s="47" t="s">
@@ -11394,7 +11609,7 @@
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="74" t="s">
+      <c r="A329" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B329" s="47" t="s">
@@ -11408,7 +11623,7 @@
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="74" t="s">
+      <c r="A330" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B330" s="47" t="s">
@@ -11422,7 +11637,7 @@
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="74" t="s">
+      <c r="A331" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B331" s="47" t="s">
@@ -11436,7 +11651,7 @@
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="74" t="s">
+      <c r="A332" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B332" s="47" t="s">
@@ -11450,7 +11665,7 @@
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" s="74" t="s">
+      <c r="A333" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B333" s="47" t="s">
@@ -11464,7 +11679,7 @@
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" s="74" t="s">
+      <c r="A334" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B334" s="47" t="s">
@@ -11478,7 +11693,7 @@
       </c>
     </row>
     <row r="335" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="74" t="s">
+      <c r="A335" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B335" s="50" t="s">
@@ -11494,7 +11709,7 @@
       <c r="F335" s="52"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A336" s="74" t="s">
+      <c r="A336" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B336" s="47" t="s">
@@ -11508,7 +11723,7 @@
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="74" t="s">
+      <c r="A337" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B337" s="47" t="s">
@@ -11522,7 +11737,7 @@
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="74" t="s">
+      <c r="A338" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B338" s="47" t="s">
@@ -11536,7 +11751,7 @@
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="74" t="s">
+      <c r="A339" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B339" s="47" t="s">
@@ -11550,7 +11765,7 @@
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" s="74" t="s">
+      <c r="A340" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B340" s="47" t="s">
@@ -11564,7 +11779,7 @@
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="74" t="s">
+      <c r="A341" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B341" s="47" t="s">
@@ -11578,7 +11793,7 @@
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="74" t="s">
+      <c r="A342" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B342" s="47" t="s">
@@ -11592,7 +11807,7 @@
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="74" t="s">
+      <c r="A343" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B343" s="47" t="s">
@@ -11606,7 +11821,7 @@
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="74" t="s">
+      <c r="A344" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B344" s="47" t="s">
@@ -11620,7 +11835,7 @@
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="74" t="s">
+      <c r="A345" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B345" s="47" t="s">
@@ -11634,7 +11849,7 @@
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="74" t="s">
+      <c r="A346" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B346" s="47" t="s">
@@ -11648,7 +11863,7 @@
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="74" t="s">
+      <c r="A347" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B347" s="47" t="s">
@@ -11662,7 +11877,7 @@
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" s="74" t="s">
+      <c r="A348" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B348" s="47" t="s">
@@ -11676,7 +11891,7 @@
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" s="74" t="s">
+      <c r="A349" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B349" s="47" t="s">
@@ -11690,7 +11905,7 @@
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" s="74" t="s">
+      <c r="A350" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B350" s="47" t="s">
@@ -11704,7 +11919,7 @@
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="74" t="s">
+      <c r="A351" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B351" s="47" t="s">
@@ -11718,7 +11933,7 @@
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="74" t="s">
+      <c r="A352" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B352" s="47" t="s">
@@ -11732,7 +11947,7 @@
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="74" t="s">
+      <c r="A353" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B353" s="47" t="s">
@@ -11746,7 +11961,7 @@
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="74" t="s">
+      <c r="A354" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B354" s="47" t="s">
@@ -11760,7 +11975,7 @@
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="74" t="s">
+      <c r="A355" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B355" s="47" t="s">
@@ -11774,7 +11989,7 @@
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="74" t="s">
+      <c r="A356" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B356" s="47" t="s">
@@ -11788,7 +12003,7 @@
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="74" t="s">
+      <c r="A357" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B357" s="47" t="s">
@@ -11802,7 +12017,7 @@
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="74" t="s">
+      <c r="A358" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B358" s="47" t="s">
@@ -11816,7 +12031,7 @@
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="74" t="s">
+      <c r="A359" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B359" s="47" t="s">
@@ -11830,7 +12045,7 @@
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="74" t="s">
+      <c r="A360" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B360" s="47" t="s">
@@ -11844,7 +12059,7 @@
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="74" t="s">
+      <c r="A361" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B361" s="47" t="s">
@@ -11858,7 +12073,7 @@
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="74" t="s">
+      <c r="A362" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B362" s="47" t="s">
@@ -11872,7 +12087,7 @@
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="74" t="s">
+      <c r="A363" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B363" s="47" t="s">
@@ -11886,7 +12101,7 @@
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="74" t="s">
+      <c r="A364" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B364" s="47" t="s">
@@ -11900,7 +12115,7 @@
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="74" t="s">
+      <c r="A365" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B365" s="47" t="s">
@@ -11914,7 +12129,7 @@
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="74" t="s">
+      <c r="A366" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B366" s="47" t="s">
@@ -11928,7 +12143,7 @@
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="74" t="s">
+      <c r="A367" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B367" s="47" t="s">
@@ -11942,7 +12157,7 @@
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="74" t="s">
+      <c r="A368" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B368" s="47" t="s">
@@ -11956,7 +12171,7 @@
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" s="74" t="s">
+      <c r="A369" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B369" s="47" t="s">
@@ -11970,7 +12185,7 @@
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="74" t="s">
+      <c r="A370" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B370" s="47" t="s">
@@ -11984,7 +12199,7 @@
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" s="74" t="s">
+      <c r="A371" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B371" s="47" t="s">
@@ -11998,7 +12213,7 @@
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372" s="74" t="s">
+      <c r="A372" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B372" s="47" t="s">
@@ -12012,7 +12227,7 @@
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="74" t="s">
+      <c r="A373" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B373" s="47" t="s">
@@ -12026,7 +12241,7 @@
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="74" t="s">
+      <c r="A374" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B374" s="47" t="s">
@@ -12040,7 +12255,7 @@
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="74" t="s">
+      <c r="A375" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B375" s="47" t="s">
@@ -12054,7 +12269,7 @@
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376" s="74" t="s">
+      <c r="A376" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B376" s="47" t="s">
@@ -12068,7 +12283,7 @@
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="74" t="s">
+      <c r="A377" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B377" s="47" t="s">
@@ -12082,7 +12297,7 @@
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="74" t="s">
+      <c r="A378" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B378" s="47" t="s">
@@ -12096,7 +12311,7 @@
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" s="74" t="s">
+      <c r="A379" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B379" s="47" t="s">
@@ -12110,7 +12325,7 @@
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="74" t="s">
+      <c r="A380" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B380" s="47" t="s">
@@ -12124,7 +12339,7 @@
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381" s="74" t="s">
+      <c r="A381" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B381" s="47" t="s">
@@ -12138,7 +12353,7 @@
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="74" t="s">
+      <c r="A382" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B382" s="47" t="s">
@@ -12152,7 +12367,7 @@
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" s="74" t="s">
+      <c r="A383" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B383" s="47" t="s">
@@ -12166,7 +12381,7 @@
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="74" t="s">
+      <c r="A384" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B384" s="47" t="s">
@@ -12180,7 +12395,7 @@
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A385" s="74" t="s">
+      <c r="A385" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B385" s="47" t="s">
@@ -12194,7 +12409,7 @@
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A386" s="74" t="s">
+      <c r="A386" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B386" s="47" t="s">
@@ -12208,7 +12423,7 @@
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" s="74" t="s">
+      <c r="A387" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B387" s="47" t="s">
@@ -12222,7 +12437,7 @@
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388" s="74" t="s">
+      <c r="A388" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B388" s="47" t="s">
@@ -12236,7 +12451,7 @@
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389" s="74" t="s">
+      <c r="A389" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B389" s="47" t="s">
@@ -12250,7 +12465,7 @@
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390" s="74" t="s">
+      <c r="A390" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B390" s="47" t="s">
@@ -12264,7 +12479,7 @@
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" s="74" t="s">
+      <c r="A391" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B391" s="47" t="s">
@@ -12278,7 +12493,7 @@
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A392" s="74" t="s">
+      <c r="A392" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B392" s="47" t="s">
@@ -12292,7 +12507,7 @@
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393" s="74" t="s">
+      <c r="A393" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B393" s="47" t="s">
@@ -12306,7 +12521,7 @@
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394" s="74" t="s">
+      <c r="A394" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B394" s="47" t="s">
@@ -12320,7 +12535,7 @@
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A395" s="74" t="s">
+      <c r="A395" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B395" s="47" t="s">
@@ -12334,7 +12549,7 @@
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396" s="74" t="s">
+      <c r="A396" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B396" s="47" t="s">
@@ -12348,7 +12563,7 @@
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397" s="74" t="s">
+      <c r="A397" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B397" s="47" t="s">
@@ -12362,7 +12577,7 @@
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A398" s="74" t="s">
+      <c r="A398" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B398" s="47" t="s">
@@ -12376,7 +12591,7 @@
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" s="74" t="s">
+      <c r="A399" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B399" s="47" t="s">
@@ -12390,7 +12605,7 @@
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400" s="74" t="s">
+      <c r="A400" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B400" s="47" t="s">
@@ -12404,7 +12619,7 @@
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A401" s="74" t="s">
+      <c r="A401" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B401" s="47" t="s">
@@ -12418,7 +12633,7 @@
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402" s="74" t="s">
+      <c r="A402" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B402" s="47" t="s">
@@ -12432,7 +12647,7 @@
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A403" s="74" t="s">
+      <c r="A403" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B403" s="47" t="s">
@@ -12446,7 +12661,7 @@
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A404" s="74" t="s">
+      <c r="A404" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B404" s="47" t="s">
@@ -12460,7 +12675,7 @@
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="74" t="s">
+      <c r="A405" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B405" s="47" t="s">
@@ -12474,7 +12689,7 @@
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406" s="74" t="s">
+      <c r="A406" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B406" s="47" t="s">
@@ -12488,7 +12703,7 @@
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" s="74" t="s">
+      <c r="A407" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B407" s="47" t="s">
@@ -12502,7 +12717,7 @@
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408" s="74" t="s">
+      <c r="A408" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B408" s="47" t="s">
@@ -12516,7 +12731,7 @@
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A409" s="74" t="s">
+      <c r="A409" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B409" s="47" t="s">
@@ -12530,7 +12745,7 @@
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A410" s="74" t="s">
+      <c r="A410" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B410" s="47" t="s">
@@ -12544,7 +12759,7 @@
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A411" s="74" t="s">
+      <c r="A411" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B411" s="47" t="s">
@@ -12558,7 +12773,7 @@
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="74" t="s">
+      <c r="A412" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B412" s="47" t="s">
@@ -12572,7 +12787,7 @@
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413" s="74" t="s">
+      <c r="A413" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B413" s="47" t="s">
@@ -12586,7 +12801,7 @@
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A414" s="74" t="s">
+      <c r="A414" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B414" s="47" t="s">
@@ -12600,7 +12815,7 @@
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A415" s="74" t="s">
+      <c r="A415" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B415" s="47" t="s">
@@ -12614,7 +12829,7 @@
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" s="74" t="s">
+      <c r="A416" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B416" s="47" t="s">
@@ -12628,7 +12843,7 @@
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417" s="74" t="s">
+      <c r="A417" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B417" s="47" t="s">
@@ -12642,7 +12857,7 @@
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A418" s="74" t="s">
+      <c r="A418" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B418" s="47" t="s">
@@ -12656,7 +12871,7 @@
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419" s="74" t="s">
+      <c r="A419" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B419" s="47" t="s">
@@ -12670,7 +12885,7 @@
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A420" s="74" t="s">
+      <c r="A420" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B420" s="47" t="s">
@@ -12684,7 +12899,7 @@
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" s="74" t="s">
+      <c r="A421" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B421" s="47" t="s">
@@ -12698,7 +12913,7 @@
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A422" s="74" t="s">
+      <c r="A422" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B422" s="47" t="s">
@@ -12712,7 +12927,7 @@
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423" s="74" t="s">
+      <c r="A423" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B423" s="47" t="s">
@@ -12726,7 +12941,7 @@
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A424" s="74" t="s">
+      <c r="A424" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B424" s="47" t="s">
@@ -12740,7 +12955,7 @@
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425" s="74" t="s">
+      <c r="A425" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B425" s="47" t="s">
@@ -12754,7 +12969,7 @@
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="74" t="s">
+      <c r="A426" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B426" s="47" t="s">
@@ -12768,7 +12983,7 @@
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427" s="74" t="s">
+      <c r="A427" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B427" s="47" t="s">
@@ -12782,7 +12997,7 @@
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="74" t="s">
+      <c r="A428" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B428" s="47" t="s">
@@ -12796,7 +13011,7 @@
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429" s="74" t="s">
+      <c r="A429" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B429" s="47" t="s">
@@ -12810,7 +13025,7 @@
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430" s="74" t="s">
+      <c r="A430" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B430" s="47" t="s">
@@ -12824,7 +13039,7 @@
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A431" s="74" t="s">
+      <c r="A431" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B431" s="47" t="s">
@@ -12838,7 +13053,7 @@
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A432" s="74" t="s">
+      <c r="A432" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B432" s="47" t="s">
@@ -12852,7 +13067,7 @@
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433" s="74" t="s">
+      <c r="A433" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B433" s="47" t="s">
@@ -12866,7 +13081,7 @@
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A434" s="74" t="s">
+      <c r="A434" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B434" s="47" t="s">
@@ -12880,7 +13095,7 @@
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A435" s="74" t="s">
+      <c r="A435" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B435" s="47" t="s">
@@ -12894,7 +13109,7 @@
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A436" s="74" t="s">
+      <c r="A436" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B436" s="47" t="s">
@@ -12908,7 +13123,7 @@
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A437" s="74" t="s">
+      <c r="A437" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B437" s="47" t="s">
@@ -12922,7 +13137,7 @@
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A438" s="74" t="s">
+      <c r="A438" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B438" s="47" t="s">
@@ -12936,7 +13151,7 @@
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A439" s="74" t="s">
+      <c r="A439" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B439" s="47" t="s">
@@ -12950,7 +13165,7 @@
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440" s="74" t="s">
+      <c r="A440" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B440" s="47" t="s">
@@ -12964,7 +13179,7 @@
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441" s="74" t="s">
+      <c r="A441" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B441" s="47" t="s">
@@ -12978,7 +13193,7 @@
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A442" s="74" t="s">
+      <c r="A442" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B442" s="47" t="s">
@@ -12992,7 +13207,7 @@
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443" s="74" t="s">
+      <c r="A443" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B443" s="47" t="s">
@@ -13006,7 +13221,7 @@
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444" s="74" t="s">
+      <c r="A444" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B444" s="47" t="s">
@@ -13020,7 +13235,7 @@
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" s="74" t="s">
+      <c r="A445" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B445" s="47" t="s">
@@ -13034,7 +13249,7 @@
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A446" s="74" t="s">
+      <c r="A446" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B446" s="47" t="s">
@@ -13048,7 +13263,7 @@
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447" s="74" t="s">
+      <c r="A447" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B447" s="47" t="s">
@@ -13062,7 +13277,7 @@
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448" s="74" t="s">
+      <c r="A448" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B448" s="47" t="s">
@@ -13076,7 +13291,7 @@
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449" s="74" t="s">
+      <c r="A449" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B449" s="47" t="s">
@@ -13090,7 +13305,7 @@
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A450" s="74" t="s">
+      <c r="A450" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B450" s="47" t="s">
@@ -13104,7 +13319,7 @@
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A451" s="74" t="s">
+      <c r="A451" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B451" s="47" t="s">
@@ -13118,7 +13333,7 @@
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A452" s="74" t="s">
+      <c r="A452" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B452" s="47" t="s">
@@ -13132,7 +13347,7 @@
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A453" s="74" t="s">
+      <c r="A453" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B453" s="47" t="s">
@@ -13146,7 +13361,7 @@
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A454" s="74" t="s">
+      <c r="A454" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B454" s="47" t="s">
@@ -13160,7 +13375,7 @@
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A455" s="74" t="s">
+      <c r="A455" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B455" s="47" t="s">
@@ -13174,7 +13389,7 @@
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A456" s="74" t="s">
+      <c r="A456" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B456" s="47" t="s">
@@ -13188,7 +13403,7 @@
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A457" s="74" t="s">
+      <c r="A457" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B457" s="47" t="s">
@@ -13202,7 +13417,7 @@
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A458" s="74" t="s">
+      <c r="A458" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B458" s="47" t="s">
@@ -13216,7 +13431,7 @@
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A459" s="74" t="s">
+      <c r="A459" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B459" s="47" t="s">
@@ -13230,7 +13445,7 @@
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A460" s="74" t="s">
+      <c r="A460" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B460" s="47" t="s">
@@ -13244,7 +13459,7 @@
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A461" s="74" t="s">
+      <c r="A461" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B461" s="47" t="s">
@@ -13258,7 +13473,7 @@
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A462" s="74" t="s">
+      <c r="A462" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B462" s="47" t="s">
@@ -13272,7 +13487,7 @@
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A463" s="74" t="s">
+      <c r="A463" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B463" s="47" t="s">
@@ -13286,7 +13501,7 @@
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A464" s="74" t="s">
+      <c r="A464" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B464" s="47" t="s">
@@ -13300,7 +13515,7 @@
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A465" s="74" t="s">
+      <c r="A465" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B465" s="47" t="s">
@@ -13314,7 +13529,7 @@
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A466" s="74" t="s">
+      <c r="A466" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B466" s="47" t="s">
@@ -13328,7 +13543,7 @@
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A467" s="74" t="s">
+      <c r="A467" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B467" s="47" t="s">
@@ -13342,7 +13557,7 @@
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A468" s="74" t="s">
+      <c r="A468" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B468" s="47" t="s">
@@ -13356,7 +13571,7 @@
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A469" s="74" t="s">
+      <c r="A469" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B469" s="47" t="s">
@@ -13370,7 +13585,7 @@
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A470" s="74" t="s">
+      <c r="A470" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B470" s="47" t="s">
@@ -13384,7 +13599,7 @@
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" s="74" t="s">
+      <c r="A471" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B471" s="47" t="s">
@@ -13398,7 +13613,7 @@
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A472" s="74" t="s">
+      <c r="A472" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B472" s="47" t="s">
@@ -13412,7 +13627,7 @@
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A473" s="74" t="s">
+      <c r="A473" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B473" s="47" t="s">
@@ -13426,7 +13641,7 @@
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A474" s="74" t="s">
+      <c r="A474" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B474" s="47" t="s">
@@ -13440,7 +13655,7 @@
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A475" s="74" t="s">
+      <c r="A475" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B475" s="47" t="s">
@@ -13454,7 +13669,7 @@
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A476" s="74" t="s">
+      <c r="A476" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B476" s="47" t="s">
@@ -13468,7 +13683,7 @@
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A477" s="74" t="s">
+      <c r="A477" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B477" s="47" t="s">
@@ -13482,7 +13697,7 @@
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A478" s="74" t="s">
+      <c r="A478" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B478" s="47" t="s">
@@ -13496,7 +13711,7 @@
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A479" s="74" t="s">
+      <c r="A479" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B479" s="47" t="s">
@@ -13510,7 +13725,7 @@
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A480" s="74" t="s">
+      <c r="A480" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B480" s="47" t="s">
@@ -13524,7 +13739,7 @@
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A481" s="74" t="s">
+      <c r="A481" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B481" s="47" t="s">
@@ -13538,7 +13753,7 @@
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A482" s="74" t="s">
+      <c r="A482" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B482" s="47" t="s">
@@ -13552,7 +13767,7 @@
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483" s="74" t="s">
+      <c r="A483" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B483" s="47" t="s">
@@ -13566,7 +13781,7 @@
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484" s="74" t="s">
+      <c r="A484" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B484" s="47" t="s">
@@ -13580,7 +13795,7 @@
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A485" s="74" t="s">
+      <c r="A485" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B485" s="47" t="s">
@@ -13594,7 +13809,7 @@
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A486" s="74" t="s">
+      <c r="A486" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B486" s="47" t="s">
@@ -13608,7 +13823,7 @@
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A487" s="74" t="s">
+      <c r="A487" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B487" s="47" t="s">
@@ -13622,7 +13837,7 @@
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A488" s="74" t="s">
+      <c r="A488" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B488" s="47" t="s">
@@ -13636,7 +13851,7 @@
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A489" s="74" t="s">
+      <c r="A489" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B489" s="47" t="s">
@@ -13650,7 +13865,7 @@
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A490" s="74" t="s">
+      <c r="A490" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B490" s="47" t="s">
@@ -13664,7 +13879,7 @@
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A491" s="74" t="s">
+      <c r="A491" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B491" s="47" t="s">
@@ -13678,7 +13893,7 @@
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A492" s="74" t="s">
+      <c r="A492" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B492" s="47" t="s">
@@ -13692,7 +13907,7 @@
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A493" s="74" t="s">
+      <c r="A493" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B493" s="47" t="s">
@@ -13706,7 +13921,7 @@
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A494" s="74" t="s">
+      <c r="A494" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B494" s="47" t="s">
@@ -13720,7 +13935,7 @@
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A495" s="74" t="s">
+      <c r="A495" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B495" s="47" t="s">
@@ -13734,7 +13949,7 @@
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A496" s="74" t="s">
+      <c r="A496" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B496" s="47" t="s">
@@ -13748,7 +13963,7 @@
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A497" s="74" t="s">
+      <c r="A497" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B497" s="47" t="s">
@@ -13762,7 +13977,7 @@
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A498" s="74" t="s">
+      <c r="A498" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B498" s="47" t="s">
@@ -13776,7 +13991,7 @@
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A499" s="74" t="s">
+      <c r="A499" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B499" s="47" t="s">
@@ -13790,7 +14005,7 @@
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A500" s="74" t="s">
+      <c r="A500" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B500" s="47" t="s">
@@ -13804,7 +14019,7 @@
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A501" s="74" t="s">
+      <c r="A501" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B501" s="47" t="s">
@@ -13818,7 +14033,7 @@
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A502" s="74" t="s">
+      <c r="A502" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B502" s="47" t="s">
@@ -13832,7 +14047,7 @@
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A503" s="74" t="s">
+      <c r="A503" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B503" s="47" t="s">
@@ -13846,7 +14061,7 @@
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A504" s="74" t="s">
+      <c r="A504" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B504" s="47" t="s">
@@ -13860,7 +14075,7 @@
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A505" s="74" t="s">
+      <c r="A505" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B505" s="47" t="s">
@@ -13874,7 +14089,7 @@
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A506" s="74" t="s">
+      <c r="A506" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B506" s="47" t="s">
@@ -13888,7 +14103,7 @@
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A507" s="74" t="s">
+      <c r="A507" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B507" s="47" t="s">
@@ -13902,7 +14117,7 @@
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A508" s="74" t="s">
+      <c r="A508" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B508" s="47" t="s">
@@ -13916,7 +14131,7 @@
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A509" s="74" t="s">
+      <c r="A509" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B509" s="47" t="s">
@@ -13930,7 +14145,7 @@
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A510" s="74" t="s">
+      <c r="A510" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B510" s="47" t="s">
@@ -13944,7 +14159,7 @@
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A511" s="74" t="s">
+      <c r="A511" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B511" s="47" t="s">
@@ -13958,7 +14173,7 @@
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A512" s="74" t="s">
+      <c r="A512" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B512" s="47" t="s">
@@ -13972,7 +14187,7 @@
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A513" s="74" t="s">
+      <c r="A513" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B513" s="47" t="s">
@@ -13986,7 +14201,7 @@
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A514" s="74" t="s">
+      <c r="A514" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B514" s="47" t="s">
@@ -14000,7 +14215,7 @@
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A515" s="74" t="s">
+      <c r="A515" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B515" s="47" t="s">
@@ -14014,7 +14229,7 @@
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A516" s="74" t="s">
+      <c r="A516" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B516" s="47" t="s">
@@ -14028,7 +14243,7 @@
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A517" s="74" t="s">
+      <c r="A517" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B517" s="47" t="s">
@@ -14042,7 +14257,7 @@
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A518" s="74" t="s">
+      <c r="A518" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B518" s="47" t="s">
@@ -14056,7 +14271,7 @@
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A519" s="74" t="s">
+      <c r="A519" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B519" s="47" t="s">
@@ -14070,7 +14285,7 @@
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A520" s="74" t="s">
+      <c r="A520" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B520" s="47" t="s">
@@ -14084,7 +14299,7 @@
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A521" s="74" t="s">
+      <c r="A521" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B521" s="47" t="s">
@@ -14098,7 +14313,7 @@
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A522" s="74" t="s">
+      <c r="A522" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B522" s="47" t="s">
@@ -14112,7 +14327,7 @@
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A523" s="74" t="s">
+      <c r="A523" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B523" s="47" t="s">
@@ -14126,7 +14341,7 @@
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A524" s="74" t="s">
+      <c r="A524" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B524" s="47" t="s">
@@ -14140,7 +14355,7 @@
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A525" s="74" t="s">
+      <c r="A525" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B525" s="47" t="s">
@@ -14154,7 +14369,7 @@
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A526" s="74" t="s">
+      <c r="A526" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B526" s="47" t="s">
@@ -14168,7 +14383,7 @@
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A527" s="74" t="s">
+      <c r="A527" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B527" s="47" t="s">
@@ -14182,7 +14397,7 @@
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A528" s="74" t="s">
+      <c r="A528" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B528" s="47" t="s">
@@ -14196,7 +14411,7 @@
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A529" s="74" t="s">
+      <c r="A529" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B529" s="47" t="s">
@@ -14210,7 +14425,7 @@
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A530" s="74" t="s">
+      <c r="A530" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B530" s="47" t="s">
@@ -14224,7 +14439,7 @@
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A531" s="74" t="s">
+      <c r="A531" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B531" s="47" t="s">
@@ -14238,7 +14453,7 @@
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A532" s="74" t="s">
+      <c r="A532" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B532" s="47" t="s">
@@ -14252,7 +14467,7 @@
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A533" s="74" t="s">
+      <c r="A533" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B533" s="47" t="s">
@@ -14266,7 +14481,7 @@
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A534" s="74" t="s">
+      <c r="A534" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B534" s="47" t="s">
@@ -14280,7 +14495,7 @@
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A535" s="74" t="s">
+      <c r="A535" s="73" t="s">
         <v>1152</v>
       </c>
       <c r="B535" s="47" t="s">
@@ -14299,7 +14514,7 @@
       <c r="C536" s="46"/>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A537" s="74" t="s">
+      <c r="A537" s="73" t="s">
         <v>1146</v>
       </c>
       <c r="B537" s="45" t="s">
@@ -14314,7 +14529,7 @@
       <c r="G537" s="46"/>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A538" s="74" t="s">
+      <c r="A538" s="73" t="s">
         <v>1146</v>
       </c>
       <c r="B538" s="45" t="s">
@@ -14329,7 +14544,7 @@
       <c r="G538" s="46"/>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A539" s="74" t="s">
+      <c r="A539" s="73" t="s">
         <v>1146</v>
       </c>
       <c r="B539" s="45" t="s">
@@ -14344,18 +14559,18 @@
       <c r="G539" s="46"/>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A540" s="85" t="s">
+      <c r="A540" s="84" t="s">
         <v>1146</v>
       </c>
-      <c r="B540" s="86" t="s">
+      <c r="B540" s="85" t="s">
         <v>1214</v>
       </c>
-      <c r="C540" s="87" t="s">
+      <c r="C540" s="86" t="s">
         <v>1215</v>
       </c>
-      <c r="D540" s="86"/>
-      <c r="E540" s="86"/>
-      <c r="F540" s="86" t="s">
+      <c r="D540" s="85"/>
+      <c r="E540" s="85"/>
+      <c r="F540" s="85" t="s">
         <v>653</v>
       </c>
     </row>
@@ -31727,7 +31942,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31761,9 +31976,9 @@
         <v>1099</v>
       </c>
       <c r="C2" s="67">
-        <v>201904021</v>
-      </c>
-      <c r="D2" s="84" t="s">
+        <v>201904101</v>
+      </c>
+      <c r="D2" s="83" t="s">
         <v>1100</v>
       </c>
     </row>
